--- a/excels/config/server/equip/server_equip_puzzle_attr.xlsx
+++ b/excels/config/server/equip/server_equip_puzzle_attr.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="54">
   <si>
     <t>下标</t>
   </si>
@@ -71,10 +71,10 @@
     <t>默认值</t>
   </si>
   <si>
-    <t>2降级时随机范围（降级范围2-20）</t>
-  </si>
-  <si>
-    <t>1升级时随机范围（升级范围1-19）</t>
+    <t>1降级时随机范围（降级范围1-20）</t>
+  </si>
+  <si>
+    <t>0升级时随机范围（升级范围0-19）</t>
   </si>
   <si>
     <t>降级时每级提升率【百分比】</t>
@@ -111,6 +111,24 @@
   </si>
   <si>
     <t>value</t>
+  </si>
+  <si>
+    <t>drop_value</t>
+  </si>
+  <si>
+    <t>up_value</t>
+  </si>
+  <si>
+    <t>drop_value_per</t>
+  </si>
+  <si>
+    <t>up_value_per</t>
+  </si>
+  <si>
+    <t>level_max</t>
+  </si>
+  <si>
+    <t>value_max</t>
   </si>
   <si>
     <t>test_1</t>
@@ -1060,7 +1078,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{837462FB-8888-4815-AB12-8FE6154861D6}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{69DD66D2-BD0D-4E86-930E-1FEFC9FEC1DD}">
       <tableStyleElement type="wholeTable" dxfId="2"/>
       <tableStyleElement type="headerRow" dxfId="1"/>
       <tableStyleElement type="secondRowStripe" dxfId="0"/>
@@ -1346,9 +1364,9 @@
   <dimension ref="A1:S10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" topLeftCell="H1" activePane="topRight" state="frozen"/>
+      <pane xSplit="5" topLeftCell="L1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="J13" sqref="J13"/>
+      <selection pane="topRight" activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1461,22 +1479,22 @@
         <v>26</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" ht="22.5" customHeight="1" spans="1:19">
@@ -1484,10 +1502,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D3" s="7">
         <v>30</v>
@@ -1497,10 +1515,10 @@
         <v>0</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="I3" s="7">
         <v>10</v>
@@ -1520,10 +1538,10 @@
         <v>50-70</v>
       </c>
       <c r="N3" s="8" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="P3" s="7">
         <v>10</v>
@@ -1543,25 +1561,25 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D4" s="9">
         <v>40</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F4" s="9">
         <v>0</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="I4" s="9">
         <v>2</v>
@@ -1581,10 +1599,10 @@
         <v>10-14</v>
       </c>
       <c r="N4" s="8" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="P4" s="7">
         <v>10</v>
@@ -1604,25 +1622,25 @@
         <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D5" s="7">
         <v>88</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F5" s="7">
         <v>0</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="I5" s="7">
         <v>30</v>
@@ -1642,10 +1660,10 @@
         <v>150-210</v>
       </c>
       <c r="N5" s="8" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="P5" s="7">
         <v>10</v>
@@ -1665,25 +1683,25 @@
         <v>4</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D6" s="7">
         <v>100</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F6" s="7">
         <v>0</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="I6" s="7">
         <v>20</v>
@@ -1703,10 +1721,10 @@
         <v>100-140</v>
       </c>
       <c r="N6" s="8" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="P6" s="7">
         <v>10</v>
@@ -1726,25 +1744,25 @@
         <v>5</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D7" s="9">
         <v>100</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F7" s="9">
         <v>0</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="I7" s="9">
         <v>8</v>
@@ -1764,10 +1782,10 @@
         <v>40-56</v>
       </c>
       <c r="N7" s="8" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7">
         <v>10</v>
@@ -1787,31 +1805,31 @@
         <v>6</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D8" s="7">
         <v>100</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F8" s="7">
         <v>0</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="I8" s="7">
         <v>8</v>
       </c>
       <c r="J8" s="7">
-        <f>ROUNDUP(PRODUCT(1.4*I8),L8)</f>
+        <f t="shared" si="0"/>
         <v>11.2</v>
       </c>
       <c r="K8" s="7">
@@ -1825,10 +1843,10 @@
         <v>40-56</v>
       </c>
       <c r="N8" s="8" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="P8" s="7">
         <v>10</v>
@@ -1848,25 +1866,25 @@
         <v>7</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D9" s="9">
         <v>100</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F9" s="9">
         <v>0</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="I9" s="9">
         <v>8</v>
@@ -1886,10 +1904,10 @@
         <v>40-56</v>
       </c>
       <c r="N9" s="8" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="P9" s="7">
         <v>10</v>
@@ -1909,25 +1927,25 @@
         <v>8</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="D10" s="7">
         <v>100</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="F10" s="7">
         <v>0</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="I10" s="7">
         <v>12</v>
@@ -1947,10 +1965,10 @@
         <v>60-84</v>
       </c>
       <c r="N10" s="8" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="P10" s="7">
         <v>10</v>

--- a/excels/config/server/equip/server_equip_puzzle_attr.xlsx
+++ b/excels/config/server/equip/server_equip_puzzle_attr.xlsx
@@ -30,12 +30,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="52">
   <si>
     <t>下标</t>
   </si>
   <si>
-    <t>词条分类，</t>
+    <t>词条分类</t>
   </si>
   <si>
     <t>备注</t>
@@ -65,7 +65,7 @@
     <t>默认倍率</t>
   </si>
   <si>
-    <t>保留小数点位数，【这个很重要】。</t>
+    <t>保留小数点位数，指显时最多保留的小数点【这个很重要】。</t>
   </si>
   <si>
     <t>默认值</t>
@@ -147,12 +147,6 @@
   </si>
   <si>
     <t>15-30</t>
-  </si>
-  <si>
-    <t>固定值建议：前期低成长高</t>
-  </si>
-  <si>
-    <t>百分比建议：前期高成长低</t>
   </si>
   <si>
     <t>public_attr_v1</t>
@@ -1078,7 +1072,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{69DD66D2-BD0D-4E86-930E-1FEFC9FEC1DD}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{D6071A8F-973A-4317-9C0D-F66C247BED9B}">
       <tableStyleElement type="wholeTable" dxfId="2"/>
       <tableStyleElement type="headerRow" dxfId="1"/>
       <tableStyleElement type="secondRowStripe" dxfId="0"/>
@@ -1364,9 +1358,9 @@
   <dimension ref="A1:S10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" topLeftCell="L1" activePane="topRight" state="frozen"/>
+      <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="S3" sqref="S3"/>
+      <selection pane="topRight" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1389,7 +1383,7 @@
     <col min="20" max="20" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="39" customHeight="1" spans="1:19">
+    <row r="1" ht="52" customHeight="1" spans="1:19">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1569,9 +1563,7 @@
       <c r="D4" s="9">
         <v>40</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>39</v>
-      </c>
+      <c r="E4" s="9"/>
       <c r="F4" s="9">
         <v>0</v>
       </c>
@@ -1630,9 +1622,7 @@
       <c r="D5" s="7">
         <v>88</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>40</v>
-      </c>
+      <c r="E5" s="7"/>
       <c r="F5" s="7">
         <v>0</v>
       </c>
@@ -1683,16 +1673,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D6" s="7">
         <v>100</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F6" s="7">
         <v>0</v>
@@ -1744,22 +1734,22 @@
         <v>5</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D7" s="9">
         <v>100</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F7" s="9">
         <v>0</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H7" s="8" t="s">
         <v>36</v>
@@ -1805,22 +1795,22 @@
         <v>6</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D8" s="7">
         <v>100</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F8" s="7">
         <v>0</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H8" s="8" t="s">
         <v>36</v>
@@ -1866,22 +1856,22 @@
         <v>7</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D9" s="9">
         <v>100</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F9" s="9">
         <v>0</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>36</v>
@@ -1927,22 +1917,22 @@
         <v>8</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D10" s="7">
         <v>100</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F10" s="7">
         <v>0</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H10" s="8" t="s">
         <v>36</v>
